--- a/Teaching/LaTech/CSC 430/_edit/CSC 430 - Schedule.xlsx
+++ b/Teaching/LaTech/CSC 430/_edit/CSC 430 - Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\430\430\_edit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunzi\Documents\Study\Teaching\LaTech\CSC 430\_edit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DA7FD1-B5F2-4A11-9316-5B29231C6782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABB429B-D36E-4265-9702-AEDD416ADC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFE6B020-4B26-477D-BC9B-D3FDEF8B7AB4}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{BFE6B020-4B26-477D-BC9B-D3FDEF8B7AB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Lab 0</t>
   </si>
   <si>
-    <t>Wamp installation / introduction &amp; Lesson 7.1</t>
-  </si>
-  <si>
     <t>Midterm Exam</t>
   </si>
   <si>
@@ -166,6 +163,21 @@
   </si>
   <si>
     <t>Last day of classes</t>
+  </si>
+  <si>
+    <t>Software installation / introduction &amp; Lesson 7.1</t>
+  </si>
+  <si>
+    <t>*Assign 1 requires lesson 4</t>
+  </si>
+  <si>
+    <t>*Practice 3?</t>
+  </si>
+  <si>
+    <t>*workday?</t>
+  </si>
+  <si>
+    <t>* Based on lesson 9</t>
   </si>
 </sst>
 </file>
@@ -226,7 +238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +317,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -636,9 +654,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -723,9 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,6 +780,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,23 +1115,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1136,360 +1154,372 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="61">
         <v>45729</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="4"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="63">
+      <c r="F2" s="52"/>
+      <c r="G2" s="61">
         <v>45729</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="61">
         <v>45734</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="63">
+      <c r="E3" s="17"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="61">
         <v>45734</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="61">
         <v>45736</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="63">
+      <c r="F4" s="54"/>
+      <c r="G4" s="61">
         <v>45736</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63">
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61">
         <v>45741</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="6"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="63">
+      <c r="F5" s="53"/>
+      <c r="G5" s="61">
         <v>45741</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="63">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61">
         <v>45743</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="25" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="63">
+      <c r="F6" s="53"/>
+      <c r="G6" s="61">
         <v>45743</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63">
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="61">
         <v>45748</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="13"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="63">
+      <c r="F7" s="53"/>
+      <c r="G7" s="61">
         <v>45748</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63">
+    <row r="8" spans="1:10" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="61">
         <v>45750</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="63">
+      <c r="F8" s="53"/>
+      <c r="G8" s="61">
         <v>45750</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="63">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="61">
         <v>45755</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="63">
+      <c r="F9" s="53"/>
+      <c r="G9" s="61">
         <v>45755</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="63">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="61">
         <v>45757</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="63">
+      <c r="E10" s="49"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="61">
         <v>45757</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="63">
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="61">
         <v>45762</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="63">
+      <c r="E11" s="18"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="61">
         <v>45762</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="63">
+    <row r="12" spans="1:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="61">
         <v>45764</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="41"/>
+      <c r="B12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="40"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="63">
+      <c r="F12" s="57"/>
+      <c r="G12" s="61">
         <v>45764</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="63">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="61">
         <v>45769</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="63">
+      <c r="F13" s="53"/>
+      <c r="G13" s="61">
         <v>45769</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="63">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="61">
         <v>45771</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="61">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="61">
+        <v>45776</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="30" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="63">
-        <v>45771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="63">
+      <c r="G15" s="61">
         <v>45776</v>
       </c>
-      <c r="B15" s="9" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="61">
+        <v>45778</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="63">
-        <v>45776</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="63">
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="53"/>
+      <c r="G16" s="61">
         <v>45778</v>
       </c>
-      <c r="B16" s="10" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="61">
+        <v>45783</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="63">
-        <v>45778</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="63">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="61">
         <v>45783</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="63">
-        <v>45783</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="63">
+    </row>
+    <row r="18" spans="1:7" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61">
         <v>45785</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="33"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="61">
         <v>45785</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="63">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="61">
         <v>45790</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="34" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="63">
+      <c r="F19" s="59"/>
+      <c r="G19" s="61">
         <v>45790</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="63">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="61">
         <v>45792</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="63">
+      <c r="E20" s="19"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="61">
         <v>45792</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="64">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="62">
         <v>45797</v>
       </c>
-      <c r="B21" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47" t="s">
+      <c r="B21" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="64">
+      <c r="E21" s="36"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="62">
         <v>45797</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="53">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="51">
         <v>45797</v>
       </c>
       <c r="B23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="51">
+        <v>45800</v>
+      </c>
+      <c r="B24" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="53">
-        <v>45800</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
